--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail3 Features.xlsx
@@ -4275,7 +4275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4286,29 +4286,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4329,115 +4327,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4454,72 +4442,66 @@
         <v>1.695914506200904e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.885560620355957</v>
+        <v>8.148383196643419e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.777389207793671</v>
+        <v>3.510990751940508e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.148383196643419e-07</v>
+        <v>-0.07696808381154351</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.510990751940508e-06</v>
+        <v>0.1550838531329967</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.07696808381154351</v>
+        <v>0.02989843847546567</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1550838531329967</v>
+        <v>1.808033766266948</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02989843847546567</v>
+        <v>1.930203508118744</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.762139552200058</v>
+        <v>3.850685049622455</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.930203508118744</v>
+        <v>1.01530018466502e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.850685049622455</v>
+        <v>194390730.5622696</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.01530018466502e-15</v>
+        <v>6.024826770990316e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>194390730.5622696</v>
+        <v>38.36591577537618</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.024826770990316e-07</v>
+        <v>0.0001016622580535796</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>38.36591577537618</v>
+        <v>6.9533123703401</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001016622580535796</v>
+        <v>1.572188871673994</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.9533123703401</v>
+        <v>0.004915223063421864</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.572188871673994</v>
+        <v>3.31775308112831</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.004915223063421864</v>
+        <v>0.9566425703766837</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.31775308112831</v>
+        <v>1.6367774874739</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9566425703766837</v>
+        <v>11</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.6367774874739</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3695790162597768</v>
       </c>
     </row>
@@ -4534,72 +4516,66 @@
         <v>1.498627709888799e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.802389743659353</v>
+        <v>6.612999095807968e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.170943757916548</v>
+        <v>3.499220758077362e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.612999095807968e-07</v>
+        <v>-0.07129459973260587</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.499220758077362e-06</v>
+        <v>0.1249467781627672</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07129459973260587</v>
+        <v>0.02065058081332074</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1249467781627672</v>
+        <v>1.794482022907098</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02065058081332074</v>
+        <v>1.825567920111585</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.745501854873211</v>
+        <v>3.864033620084554</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.825567920111585</v>
+        <v>1.008297452373278e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.864033620084554</v>
+        <v>193184172.0771156</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.008297452373278e-15</v>
+        <v>6.046440266781051e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>193184172.0771156</v>
+        <v>37.62978629540585</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.046440266781051e-07</v>
+        <v>0.0001078433452580187</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>37.62978629540585</v>
+        <v>7.238169743446303</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001078433452580187</v>
+        <v>1.445082462562622</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.238169743446303</v>
+        <v>0.005650031618927609</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.445082462562622</v>
+        <v>3.189775150735628</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.005650031618927609</v>
+        <v>0.9566934705869354</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.189775150735628</v>
+        <v>1.65303118423887</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9566934705869354</v>
+        <v>15</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.65303118423887</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3219515767079147</v>
       </c>
     </row>
@@ -4614,72 +4590,66 @@
         <v>1.353563861788015e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.810387008563096</v>
+        <v>5.627578313402391e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.09774905895528</v>
+        <v>3.489332621373805e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.627578313402391e-07</v>
+        <v>-0.06825434933376281</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.489332621373805e-06</v>
+        <v>0.1085779797902446</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.06825434933376281</v>
+        <v>0.01642824736556765</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1085779797902446</v>
+        <v>1.791108204339272</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01642824736556765</v>
+        <v>1.843633672298189</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.744880441439149</v>
+        <v>3.95172316864481</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.843633672298189</v>
+        <v>9.640452882705935e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.95172316864481</v>
+        <v>204284322.9516442</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.640452882705935e-16</v>
+        <v>5.715728489454812e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>204284322.9516442</v>
+        <v>40.23161953201438</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.715728489454812e-07</v>
+        <v>0.0001078698430536056</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>40.23161953201438</v>
+        <v>7.035872270666449</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001078698430536056</v>
+        <v>1.426698499823334</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.035872270666449</v>
+        <v>0.005339934625571563</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.426698499823334</v>
+        <v>3.166872297548116</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.005339934625571563</v>
+        <v>0.9575642704862622</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.166872297548116</v>
+        <v>1.635688059457834</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9575642704862622</v>
+        <v>20</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.635688059457834</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3182631252322066</v>
       </c>
     </row>
@@ -4694,72 +4664,66 @@
         <v>1.234976148781897e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.864143171270668</v>
+        <v>5.090080267122008e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.300085735019595</v>
+        <v>3.480517120307692e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.090080267122008e-07</v>
+        <v>-0.06871240408700933</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.480517120307692e-06</v>
+        <v>0.1076486976719267</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.06871240408700933</v>
+        <v>0.01630215519528753</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1076486976719267</v>
+        <v>1.787889176296983</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01630215519528753</v>
+        <v>1.854608359550666</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.742590260612857</v>
+        <v>3.964572043684023</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.854608359550666</v>
+        <v>9.578066199801263e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.964572043684023</v>
+        <v>205216314.1761366</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.578066199801263e-16</v>
+        <v>5.683012591541299e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>205216314.1761366</v>
+        <v>40.3368147536411</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.683012591541299e-07</v>
+        <v>0.0001015405733894461</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>40.3368147536411</v>
+        <v>6.123362175159336</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001015405733894461</v>
+        <v>1.467163872695288</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.123362175159336</v>
+        <v>0.003807321101443453</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.467163872695288</v>
+        <v>3.320444915808623</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.003807321101443453</v>
+        <v>0.9594489286393064</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.320444915808623</v>
+        <v>1.631438435856645</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9594489286393064</v>
+        <v>20</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.631438435856645</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3126425465837867</v>
       </c>
     </row>
@@ -4774,72 +4738,66 @@
         <v>1.126376855877934e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.925055235547382</v>
+        <v>4.839595501710168e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.568633220459105</v>
+        <v>3.472251779315825e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.839595501710168e-07</v>
+        <v>-0.07162538714766034</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.472251779315825e-06</v>
+        <v>0.1139292277105979</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.07162538714766034</v>
+        <v>0.01810448532481674</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1139292277105979</v>
+        <v>1.794154063084036</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01810448532481674</v>
+        <v>1.778145363502101</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.753695318239754</v>
+        <v>3.997438665263155</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.778145363502101</v>
+        <v>9.421213485498738e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.997438665263155</v>
+        <v>216788485.9613706</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>9.421213485498738e-16</v>
+        <v>5.401120974760284e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>216788485.9613706</v>
+        <v>44.27711032983864</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.401120974760284e-07</v>
+        <v>0.0001040348269575084</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>44.27711032983864</v>
+        <v>6.335597955286183</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001040348269575084</v>
+        <v>1.393907535495925</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.335597955286183</v>
+        <v>0.004175937298066283</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.393907535495925</v>
+        <v>3.261858626941962</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.004175937298066283</v>
+        <v>0.9594908999918736</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.261858626941962</v>
+        <v>1.645787075324946</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9594908999918736</v>
+        <v>20</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.645787075324946</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.321029809577719</v>
       </c>
     </row>
@@ -4854,72 +4812,66 @@
         <v>1.023447722958917e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.977906431527011</v>
+        <v>4.538289712423124e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.822627338218911</v>
+        <v>3.4644225127179e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.538289712423124e-07</v>
+        <v>-0.07392539890034618</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.4644225127179e-06</v>
+        <v>0.1196099227765347</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.07392539890034618</v>
+        <v>0.01976159153039494</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1196099227765347</v>
+        <v>1.801132837920766</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01976159153039494</v>
+        <v>1.812548786928173</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.759814885387608</v>
+        <v>3.883966484416585</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.812548786928173</v>
+        <v>9.140960292892236e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.883966484416585</v>
+        <v>230822903.0299073</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.140960292892236e-16</v>
+        <v>5.097468082669431e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>230822903.0299073</v>
+        <v>48.70231664763561</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.097468082669431e-07</v>
+        <v>0.000109195428268264</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>48.70231664763561</v>
+        <v>6.869825259952934</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000109195428268264</v>
+        <v>1.39306054082789</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.869825259952934</v>
+        <v>0.005153423541380476</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.39306054082789</v>
+        <v>3.238129671977986</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.005153423541380476</v>
+        <v>0.9584889078102538</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.238129671977986</v>
+        <v>1.631929081590549</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9584889078102538</v>
+        <v>20</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.631929081590549</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.293859552902181</v>
       </c>
     </row>
@@ -4934,72 +4886,66 @@
         <v>9.297824239286037e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.036119018197267</v>
+        <v>4.172565902340649e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>3.161345283213223</v>
+        <v>3.457162916324044e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.172565902340649e-07</v>
+        <v>-0.07481293341744856</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.457162916324044e-06</v>
+        <v>0.1233159002575203</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.07481293341744856</v>
+        <v>0.0207937765790258</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1233159002575203</v>
+        <v>1.808922529995836</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0207937765790258</v>
+        <v>1.939251126483285</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.771903747591445</v>
+        <v>3.904931447630755</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.939251126483285</v>
+        <v>9.705396018543016e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.904931447630755</v>
+        <v>218401863.1758246</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>9.705396018543016e-16</v>
+        <v>5.389567568513757e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>218401863.1758246</v>
+        <v>46.29413129408385</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.389567568513757e-07</v>
+        <v>0.0001156578122243757</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>46.29413129408385</v>
+        <v>8.169246732315505</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001156578122243757</v>
+        <v>1.361097804277729</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.169246732315505</v>
+        <v>0.007718608246091341</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.361097804277729</v>
+        <v>3.105455794536751</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.007718608246091341</v>
+        <v>0.9576679863324677</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.105455794536751</v>
+        <v>1.610329123126903</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9576679863324677</v>
+        <v>20</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.610329123126903</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2807463634481217</v>
       </c>
     </row>
@@ -5014,72 +4960,66 @@
         <v>8.443886378011384e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.105261157497873</v>
+        <v>3.867236812352823e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>3.647147095877486</v>
+        <v>3.450478554608216e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.867236812352823e-07</v>
+        <v>-0.07631301289799662</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.450478554608216e-06</v>
+        <v>0.1306464333558242</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.07631301289799662</v>
+        <v>0.02288739705260398</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1306464333558242</v>
+        <v>1.821848800945785</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02288739705260398</v>
+        <v>1.961072725870622</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.787924472614815</v>
+        <v>3.808536712676601</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.961072725870622</v>
+        <v>1.020290390897799e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.808536712676601</v>
+        <v>207255491.5517887</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.020290390897799e-15</v>
+        <v>5.699936720711441e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>207255491.5517887</v>
+        <v>43.82640924813871</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.699936720711441e-07</v>
+        <v>0.0001167912694307918</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>43.82640924813871</v>
+        <v>8.420930164897838</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001167912694307918</v>
+        <v>1.169342477286009</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.420930164897838</v>
+        <v>0.008281910070865884</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.169342477286009</v>
+        <v>2.954535700754697</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008281910070865884</v>
+        <v>0.9586669969532019</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.954535700754697</v>
+        <v>1.589143569916544</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9586669969532019</v>
+        <v>19</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.589143569916544</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.297410287803946</v>
       </c>
     </row>
@@ -5094,72 +5034,66 @@
         <v>7.610078893083092e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.163336856964847</v>
+        <v>3.649400472012544e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>4.174084146584186</v>
+        <v>3.44422969846539e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.649400472012544e-07</v>
+        <v>-0.07969232373125676</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.44422969846539e-06</v>
+        <v>0.1430559269859873</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.07969232373125676</v>
+        <v>0.02681154886911044</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1430559269859873</v>
+        <v>1.828467067591178</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02681154886911044</v>
+        <v>1.950906343651709</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.797357175717552</v>
+        <v>3.871087988652667</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.950906343651709</v>
+        <v>9.875839052663372e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.871087988652667</v>
+        <v>214544813.2782053</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>9.875839052663372e-16</v>
+        <v>5.509849827276568e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>214544813.2782053</v>
+        <v>45.45797055879176</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.509849827276568e-07</v>
+        <v>0.0001184226073485193</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>45.45797055879176</v>
+        <v>7.233760507780448</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001184226073485193</v>
+        <v>1.361099739512783</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.233760507780448</v>
+        <v>0.00619673424564321</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.361099739512783</v>
+        <v>3.153372702486529</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.00619673424564321</v>
+        <v>0.95954859544418</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.153372702486529</v>
+        <v>1.580533834538813</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.95954859544418</v>
+        <v>21</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.580533834538813</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2807829242638075</v>
       </c>
     </row>
@@ -5174,72 +5108,66 @@
         <v>6.774071477345998e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2.17864359289467</v>
+        <v>3.412491259661609e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>4.578311019364622</v>
+        <v>3.438353411052101e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.412491259661609e-07</v>
+        <v>-0.08387762284620776</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.438353411052101e-06</v>
+        <v>0.1573784589247395</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.08387762284620776</v>
+        <v>0.0317943940149814</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1573784589247395</v>
+        <v>1.834800080470735</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0317943940149814</v>
+        <v>2.047918495429522</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.810538766462373</v>
+        <v>3.844719753043788</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.047918495429522</v>
+        <v>1.001176647895232e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.844719753043788</v>
+        <v>210104444.0970702</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.001176647895232e-15</v>
+        <v>5.616550058701595e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>210104444.0970702</v>
+        <v>44.19581922980351</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.616550058701595e-07</v>
+        <v>0.0001302002688439938</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>44.19581922980351</v>
+        <v>7.066256305312713</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001302002688439938</v>
+        <v>1.446508619702956</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.066256305312713</v>
+        <v>0.006501156981955224</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.446508619702956</v>
+        <v>3.126189105121211</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006501156981955224</v>
+        <v>0.9582323848918695</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.126189105121211</v>
+        <v>1.581323671337458</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9582323848918695</v>
+        <v>18</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.581323671337458</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2645323322691977</v>
       </c>
     </row>
@@ -5254,72 +5182,66 @@
         <v>5.964762118814619e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2.122482554615467</v>
+        <v>3.150053801939422e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>4.722291535671708</v>
+        <v>3.432884098877837e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.150053801939422e-07</v>
+        <v>-0.08804036591990967</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.432884098877837e-06</v>
+        <v>0.1722271245920043</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.08804036591990967</v>
+        <v>0.03739870726241656</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1722271245920043</v>
+        <v>1.828334862694653</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03739870726241656</v>
+        <v>1.944965810976452</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.798124371636809</v>
+        <v>3.957804764087829</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.944965810976452</v>
+        <v>9.447814449092199e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.957804764087829</v>
+        <v>208226751.8570166</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>9.447814449092199e-16</v>
+        <v>5.604362168654435e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>208226751.8570166</v>
+        <v>40.96419308381449</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.604362168654435e-07</v>
+        <v>0.0001495632351967909</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>40.96419308381449</v>
+        <v>8.431995392424804</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001495632351967909</v>
+        <v>1.31311582553781</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.431995392424804</v>
+        <v>0.01063372860209873</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.31311582553781</v>
+        <v>2.944583626312383</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01063372860209873</v>
+        <v>0.9589890550058063</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.944583626312383</v>
+        <v>1.591513297405515</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9589890550058063</v>
+        <v>21</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.591513297405515</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2471016397355721</v>
       </c>
     </row>
@@ -5334,72 +5256,66 @@
         <v>5.211399565705317e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.964343332127172</v>
+        <v>2.838670666613778e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>4.4408084902046</v>
+        <v>3.427886668475929e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.838670666613778e-07</v>
+        <v>-0.09060412643912594</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.427886668475929e-06</v>
+        <v>0.1863324629786829</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.09060412643912594</v>
+        <v>0.04290245228926142</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1863324629786829</v>
+        <v>1.828093216709129</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.04290245228926142</v>
+        <v>1.941211318433302</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.802345900234385</v>
+        <v>4.192288500439652</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.941211318433302</v>
+        <v>1.026275216798135e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.192288500439652</v>
+        <v>191188445.2176386</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.026275216798135e-15</v>
+        <v>6.120444042718684e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>191188445.2176386</v>
+        <v>37.51346015150387</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.120444042718684e-07</v>
+        <v>0.0001609809507568173</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>37.51346015150387</v>
+        <v>10.20075893132574</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001609809507568173</v>
+        <v>1.152491799637752</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.20075893132574</v>
+        <v>0.01675095054858264</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.152491799637752</v>
+        <v>2.757372620639796</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01675095054858264</v>
+        <v>0.9586672771980297</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.757372620639796</v>
+        <v>1.599434344854429</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9586672771980297</v>
+        <v>16</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.599434344854429</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.259851814852904</v>
       </c>
     </row>
@@ -5414,72 +5330,66 @@
         <v>4.54794193531662e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.710162865854763</v>
+        <v>2.49173125238211e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>3.750008629416881</v>
+        <v>3.423491905620088e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.49173125238211e-07</v>
+        <v>-0.08904630352469996</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.423491905620088e-06</v>
+        <v>0.1975460690116186</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.08904630352469996</v>
+        <v>0.04691411790722164</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1975460690116186</v>
+        <v>1.823550625127643</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.04691411790722164</v>
+        <v>1.834041948583668</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.800163393362121</v>
+        <v>4.351853849190645</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.834041948583668</v>
+        <v>1.267658997173975e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.351853849190645</v>
+        <v>155932424.7963957</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.267658997173975e-15</v>
+        <v>7.496360674008287e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>155932424.7963957</v>
+        <v>30.82302850164576</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>7.496360674008287e-07</v>
+        <v>0.0001568690980791251</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>30.82302850164576</v>
+        <v>10.74452909915796</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001568690980791251</v>
+        <v>1.068564068869873</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.74452909915796</v>
+        <v>0.01810973821344301</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.068564068869873</v>
+        <v>2.723310666942527</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01810973821344301</v>
+        <v>0.959367972882104</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.723310666942527</v>
+        <v>1.60011374469262</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.959367972882104</v>
+        <v>16</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.60011374469262</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2852299714795068</v>
       </c>
     </row>
@@ -5494,72 +5404,66 @@
         <v>3.989223952026038e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.408177554874968</v>
+        <v>2.156503008076739e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2.881501226923792</v>
+        <v>3.419820954603029e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.156503008076739e-07</v>
+        <v>-0.08239597715040343</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.419820954603029e-06</v>
+        <v>0.209879665862669</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.08239597715040343</v>
+        <v>0.0507899534052628</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.209879665862669</v>
+        <v>1.820580194984087</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0507899534052628</v>
+        <v>1.7573345300757</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.801674455545608</v>
+        <v>4.18070149676251</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.7573345300757</v>
+        <v>1.417065586162397e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.18070149676251</v>
+        <v>138854862.317254</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.417065586162397e-15</v>
+        <v>8.407391499310061e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>138854862.317254</v>
+        <v>27.3219778875531</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>8.407391499310061e-07</v>
+        <v>0.0001655510915938625</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>27.3219778875531</v>
+        <v>9.090318668816193</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001655510915938625</v>
+        <v>1.336696712500973</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.090318668816193</v>
+        <v>0.01368013127167998</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.336696712500973</v>
+        <v>2.846100550790873</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01368013127167998</v>
+        <v>0.9608215365710471</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.846100550790873</v>
+        <v>1.537652480296165</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9608215365710471</v>
+        <v>15</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.537652480296165</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2560268049275926</v>
       </c>
     </row>
@@ -5574,72 +5478,66 @@
         <v>3.529025780843937e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.098707789526437</v>
+        <v>1.864836901839075e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2.056779537182561</v>
+        <v>3.416903210189227e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.864836901839075e-07</v>
+        <v>-0.07275695309816854</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.416903210189227e-06</v>
+        <v>0.2255066342499344</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.07275695309816854</v>
+        <v>0.05610160994675417</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2255066342499344</v>
+        <v>1.825847651408056</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.05610160994675417</v>
+        <v>1.675698864203751</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.804328161852024</v>
+        <v>4.864603404830392</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.675698864203751</v>
+        <v>1.028198627421639e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.864603404830392</v>
+        <v>196727457.3923199</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.028198627421639e-15</v>
+        <v>5.976293354514613e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>196727457.3923199</v>
+        <v>39.79302709921709</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.976293354514613e-07</v>
+        <v>0.0001673718127205569</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>39.79302709921709</v>
+        <v>8.78723905682809</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001673718127205569</v>
+        <v>1.306895106183733</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.78723905682809</v>
+        <v>0.0129237099616291</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.306895106183733</v>
+        <v>2.772785325792432</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0129237099616291</v>
+        <v>0.9603249379292064</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.772785325792432</v>
+        <v>1.59292940392182</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9603249379292064</v>
+        <v>20</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.59292940392182</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2601043464024724</v>
       </c>
     </row>
@@ -5654,72 +5552,66 @@
         <v>3.155451140292604e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.7830376622808467</v>
+        <v>1.630880923062636e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1.338512151690863</v>
+        <v>3.414651896128263e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.630880923062636e-07</v>
+        <v>-0.06181632793918043</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.414651896128263e-06</v>
+        <v>0.2455076908077918</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06181632793918043</v>
+        <v>0.06405584233592068</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2455076908077918</v>
+        <v>1.835810821903946</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.06405584233592068</v>
+        <v>1.800177533725693</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.818891143844003</v>
+        <v>4.344220668437131</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.800177533725693</v>
+        <v>7.040740758506275e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.344220668437131</v>
+        <v>303260361.2617098</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>7.040740758506275e-16</v>
+        <v>3.907494361460658e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>303260361.2617098</v>
+        <v>64.75147260805802</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.907494361460658e-07</v>
+        <v>0.0001686748274076416</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>64.75147260805802</v>
+        <v>9.665862219904227</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001686748274076416</v>
+        <v>1.287259499765723</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.665862219904227</v>
+        <v>0.01575910230959455</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.287259499765723</v>
+        <v>2.67024182620474</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01575910230959455</v>
+        <v>0.9610865285596403</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.67024182620474</v>
+        <v>1.546107240822152</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9610865285596403</v>
+        <v>37</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.546107240822152</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2666793837065459</v>
       </c>
     </row>
@@ -5734,72 +5626,66 @@
         <v>2.853671271727486e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4345878139526065</v>
+        <v>1.450113910393419e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.640455707399056</v>
+        <v>3.412973348852971e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.450113910393419e-07</v>
+        <v>-0.04981507898821209</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.412973348852971e-06</v>
+        <v>0.2701663172345561</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04981507898821209</v>
+        <v>0.07543670706366119</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2701663172345561</v>
+        <v>1.832200796128616</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.07543670706366119</v>
+        <v>1.975241153916365</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.810670484220347</v>
+        <v>4.311055419014418</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.975241153916365</v>
+        <v>7.105325925901044e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.311055419014418</v>
+        <v>300821931.3214454</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>7.105325925901044e-16</v>
+        <v>3.933377923088226e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>300821931.3214454</v>
+        <v>64.29881874404713</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.933377923088226e-07</v>
+        <v>0.0001527549732422549</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>64.29881874404713</v>
+        <v>9.228044074087304</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001527549732422549</v>
+        <v>1.3245946591344</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.228044074087304</v>
+        <v>0.01300812431331952</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.3245946591344</v>
+        <v>2.844187226076125</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01300812431331952</v>
+        <v>0.9618242716542329</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.844187226076125</v>
+        <v>1.53938521946564</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9618242716542329</v>
+        <v>34</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.53938521946564</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.258432090652563</v>
       </c>
     </row>
@@ -5814,72 +5700,66 @@
         <v>2.623714569231256e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.06515387505042972</v>
+        <v>1.281356838752667e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.05085213389371468</v>
+        <v>3.411787627710298e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.281356838752667e-07</v>
+        <v>-0.03642857608547213</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.411787627710298e-06</v>
+        <v>0.2898950633018678</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.03642857608547213</v>
+        <v>0.08532934555693392</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2898950633018678</v>
+        <v>1.834753828395187</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.08532934555693392</v>
+        <v>2.034898372548853</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.808560937849942</v>
+        <v>4.052673767917797</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.034898372548853</v>
+        <v>8.087411870843659e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.052673767917797</v>
+        <v>264055066.0410485</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>8.087411870843659e-16</v>
+        <v>4.483258418265718e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>264055066.0410485</v>
+        <v>56.38954227196684</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.483258418265718e-07</v>
+        <v>0.0001348693732052956</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>56.38954227196684</v>
+        <v>7.976510409295981</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001348693732052956</v>
+        <v>1.35421976896709</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.976510409295981</v>
+        <v>0.008581025878780211</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.35421976896709</v>
+        <v>3.103400977586804</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.008581025878780211</v>
+        <v>0.9623546087083187</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.103400977586804</v>
+        <v>1.560032704239393</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9623546087083187</v>
+        <v>29</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.560032704239393</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2448197024272058</v>
       </c>
     </row>
@@ -5894,72 +5774,66 @@
         <v>2.476332819022321e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2283752483976938</v>
+        <v>1.113022143411115e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.5305933058424031</v>
+        <v>3.411044039416272e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.113022143411115e-07</v>
+        <v>-0.02233864373457591</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.411044039416272e-06</v>
+        <v>0.298644531233894</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.02233864373457591</v>
+        <v>0.08965809804240757</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.298644531233894</v>
+        <v>1.822193729726288</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.08965809804240757</v>
+        <v>1.83696800043114</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.780005191814865</v>
+        <v>4.831955627940605</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.83696800043114</v>
+        <v>1.246959358987435e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.831955627940605</v>
+        <v>172632964.1457159</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.246959358987435e-15</v>
+        <v>6.857049216013668e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>172632964.1457159</v>
+        <v>37.16205777708205</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.857049216013668e-07</v>
+        <v>0.0001324137986235348</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>37.16205777708205</v>
+        <v>8.231461158530394</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001324137986235348</v>
+        <v>1.395612155333527</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.231461158530394</v>
+        <v>0.008971955503985449</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.395612155333527</v>
+        <v>3.179430000409619</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.008971955503985449</v>
+        <v>0.9609803228293391</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.179430000409619</v>
+        <v>1.584528338884625</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9609803228293391</v>
+        <v>29</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.584528338884625</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2417305975965044</v>
       </c>
     </row>
@@ -5974,72 +5848,66 @@
         <v>2.399458147234966e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.3854187125792578</v>
+        <v>9.605358675083266e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.7190449545881572</v>
+        <v>3.41062743463607e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>9.605358675083266e-08</v>
+        <v>-0.01287139501250897</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.41062743463607e-06</v>
+        <v>0.2979168067580704</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.01287139501250897</v>
+        <v>0.0888960606423907</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2979168067580704</v>
+        <v>1.811587824919663</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0888960606423907</v>
+        <v>1.791849651246713</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.759446650972379</v>
+        <v>4.195427074877444</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.791849651246713</v>
+        <v>1.679010729234298e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.195427074877444</v>
+        <v>125355468.8512594</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.679010729234298e-15</v>
+        <v>9.357321992536592e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>125355468.8512594</v>
+        <v>26.38396380469189</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>9.357321992536592e-07</v>
+        <v>0.0001281700971389488</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>26.38396380469189</v>
+        <v>9.933652293950102</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001281700971389488</v>
+        <v>1.155535770040312</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.933652293950102</v>
+        <v>0.01264749808239488</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.155535770040312</v>
+        <v>3.102681928498945</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01264749808239488</v>
+        <v>0.9596376546476266</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.102681928498945</v>
+        <v>1.617199796531609</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9596376546476266</v>
+        <v>29</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.617199796531609</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2687113578772923</v>
       </c>
     </row>
@@ -6054,72 +5922,66 @@
         <v>2.363279202343632e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.4460508456841263</v>
+        <v>8.588197741792865e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.749341766827416</v>
+        <v>3.410393202859373e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>8.588197741792865e-08</v>
+        <v>-0.007221000082070668</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.410393202859373e-06</v>
+        <v>0.2953825773807913</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.007221000082070668</v>
+        <v>0.08728463341774789</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2953825773807913</v>
+        <v>1.796594905680117</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.08728463341774789</v>
+        <v>1.755188347584717</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.738357425273108</v>
+        <v>4.235132006887381</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.755188347584717</v>
+        <v>1.647676400085223e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.235132006887381</v>
+        <v>125814712.1161058</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.647676400085223e-15</v>
+        <v>9.306812461393382e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>125814712.1161058</v>
+        <v>26.0816328877944</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>9.306812461393382e-07</v>
+        <v>0.0001334267256315207</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>26.0816328877944</v>
+        <v>10.84386279605071</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001334267256315207</v>
+        <v>1.069937690378877</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.84386279605071</v>
+        <v>0.0156895633192142</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.069937690378877</v>
+        <v>2.972270535751388</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0156895633192142</v>
+        <v>0.959092838517425</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.972270535751388</v>
+        <v>1.677716677556369</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.959092838517425</v>
+        <v>36</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.677716677556369</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2750426650502853</v>
       </c>
     </row>
@@ -6134,72 +5996,66 @@
         <v>2.348929398648222e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.4619644312907177</v>
+        <v>8.588197741792865e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.7410433737243096</v>
+        <v>3.41027669060921e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>8.588197741792865e-08</v>
+        <v>-0.002935449690220742</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.41027669060921e-06</v>
+        <v>0.2927647746745689</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.002935449690220742</v>
+        <v>0.08570981609112681</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2927647746745689</v>
+        <v>1.792928406121727</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.08570981609112681</v>
+        <v>1.75183776460759</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.731277702209556</v>
+        <v>4.33340640365732</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.75183776460759</v>
+        <v>1.573790730345176e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.33340640365732</v>
+        <v>131569414.9795597</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.573790730345176e-15</v>
+        <v>8.887363259788905e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>131569414.9795597</v>
+        <v>27.24312168333909</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>8.887363259788905e-07</v>
+        <v>0.0001353564505504775</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>27.24312168333909</v>
+        <v>8.989041595643089</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001353564505504775</v>
+        <v>1.311183305854644</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.989041595643089</v>
+        <v>0.01093718951617407</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.311183305854644</v>
+        <v>3.154584235061811</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01093718951617407</v>
+        <v>0.9598337112128499</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.154584235061811</v>
+        <v>1.66852214875608</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9598337112128499</v>
+        <v>36</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.66852214875608</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2406247681777708</v>
       </c>
     </row>
@@ -6214,72 +6070,66 @@
         <v>2.346053801499395e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.4636666489566303</v>
+        <v>8.588197741792865e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.7371663335842022</v>
+        <v>3.410248492314748e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>8.588197741792865e-08</v>
+        <v>0.0003616093059001325</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.410248492314748e-06</v>
+        <v>0.2908997662750755</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.0003616093059001325</v>
+        <v>0.0846196693019993</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2908997662750755</v>
+        <v>1.792708226335958</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.0846196693019993</v>
+        <v>1.805093115586222</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.733084832331327</v>
+        <v>4.364496846725837</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.805093115586222</v>
+        <v>1.551448830602729e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.364496846725837</v>
+        <v>136823330.4872248</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.551448830602729e-15</v>
+        <v>8.578186175962437e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>136823330.4872248</v>
+        <v>29.04408984931912</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>8.578186175962437e-07</v>
+        <v>0.0001315769968082159</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>29.04408984931912</v>
+        <v>7.84798238551187</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001315769968082159</v>
+        <v>1.533832070180715</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.84798238551187</v>
+        <v>0.008103936116449223</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.533832070180715</v>
+        <v>3.261918288836565</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.008103936116449223</v>
+        <v>0.9597961278331378</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.261918288836565</v>
+        <v>1.634211755720314</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9597961278331378</v>
+        <v>36</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.634211755720314</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2259684906950941</v>
       </c>
     </row>
@@ -6656,7 +6506,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.207386903446915</v>
+        <v>1.182192389194159</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.330443794356131</v>
@@ -6745,7 +6595,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.209228562661409</v>
+        <v>1.186490206483998</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.312160502881756</v>
@@ -6834,7 +6684,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.216327720251063</v>
+        <v>1.191933895729301</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.160317472969232</v>
@@ -6923,7 +6773,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.219421889764583</v>
+        <v>1.191584312321508</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.334935926021957</v>
@@ -7012,7 +6862,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.229830804825857</v>
+        <v>1.205781583927944</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.303269076002331</v>
@@ -7101,7 +6951,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.24229113089985</v>
+        <v>1.222520631034275</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.108857335450752</v>
@@ -7190,7 +7040,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.254859982459125</v>
+        <v>1.23933105544934</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.103262507389491</v>
@@ -7279,7 +7129,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.250263998037077</v>
+        <v>1.234137050910336</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.105672315462763</v>
@@ -7368,7 +7218,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.261221431026585</v>
+        <v>1.239217372322165</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.020628705139651</v>
@@ -7457,7 +7307,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.286094027631861</v>
+        <v>1.267278579048631</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.214579178731387</v>
@@ -7546,7 +7396,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.309188118704367</v>
+        <v>1.29288010059409</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.16373151167411</v>
@@ -7635,7 +7485,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.334986954774538</v>
+        <v>1.31548387063608</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.287362769671356</v>
@@ -7724,7 +7574,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.327447109130349</v>
+        <v>1.308886811260668</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.469884079908501</v>
@@ -7813,7 +7663,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.35792905729753</v>
+        <v>1.341197799624869</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.216477094171702</v>
@@ -7902,7 +7752,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.345399943191647</v>
+        <v>1.319188280145933</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.276233151303313</v>
@@ -7991,7 +7841,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.330497995331709</v>
+        <v>1.308979331515236</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.225690070673451</v>
@@ -8080,7 +7930,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.336589687207779</v>
+        <v>1.314469748047094</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.400946581903273</v>
@@ -8169,7 +8019,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.330223056753986</v>
+        <v>1.310966743765187</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.237934262462248</v>
@@ -8258,7 +8108,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.325190372798525</v>
+        <v>1.310784645016706</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.106630754971582</v>
@@ -8347,7 +8197,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.332161780958362</v>
+        <v>1.319316914111953</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.304409666286496</v>
@@ -8436,7 +8286,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.321707489383605</v>
+        <v>1.308016128539508</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.192905914082047</v>
@@ -8525,7 +8375,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.327817183760135</v>
+        <v>1.313673639320596</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.098207326665531</v>
@@ -8614,7 +8464,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.335040253333042</v>
+        <v>1.319905494481168</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.232652086986894</v>
@@ -8703,7 +8553,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.319830130013086</v>
+        <v>1.305633207500049</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.232488953430993</v>
@@ -8792,7 +8642,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.314251249056193</v>
+        <v>1.302195857228761</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.28417876453446</v>
@@ -8881,7 +8731,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.307016536140714</v>
+        <v>1.291063170494051</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.423313618438522</v>
@@ -8970,7 +8820,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.310026971075926</v>
+        <v>1.294868173277898</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.292328561694166</v>
@@ -9059,7 +8909,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.303227157093309</v>
+        <v>1.282752870818732</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.037841365392867</v>
@@ -9148,7 +8998,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.28545358527738</v>
+        <v>1.274375023701259</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.253457328971973</v>
@@ -9237,7 +9087,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.288261608210352</v>
+        <v>1.278746825904026</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.132162709502433</v>
@@ -9326,7 +9176,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.289339823778828</v>
+        <v>1.274198705293061</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.213346243454666</v>
@@ -9415,7 +9265,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.265726714213071</v>
+        <v>1.256301485933505</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.192197580561762</v>
@@ -9504,7 +9354,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.277265835269156</v>
+        <v>1.261895711575853</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.137699760976216</v>
@@ -9593,7 +9443,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.264057522327962</v>
+        <v>1.250727034479702</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.272315328507353</v>
@@ -9682,7 +9532,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.25082927509083</v>
+        <v>1.238408186859778</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.26064144073505</v>
@@ -9771,7 +9621,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.242858896939154</v>
+        <v>1.231436022606346</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.347763625518925</v>
@@ -9860,7 +9710,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.245273457458502</v>
+        <v>1.236326067437249</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.254139557312571</v>
@@ -9949,7 +9799,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.230915618889725</v>
+        <v>1.22150756243811</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.318669278912007</v>
@@ -10038,7 +9888,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.232075149786123</v>
+        <v>1.220711502827407</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.361902519571704</v>
@@ -10127,7 +9977,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.244477883750591</v>
+        <v>1.22884316082726</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.347270361916735</v>
@@ -10216,7 +10066,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.227604703075504</v>
+        <v>1.215237702346959</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.294086084713493</v>
@@ -10305,7 +10155,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.231306485462663</v>
+        <v>1.218518824828771</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.321818960483986</v>
@@ -10394,7 +10244,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.249413521703107</v>
+        <v>1.230482202339566</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.326140900905707</v>
@@ -10483,7 +10333,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.2580673278644</v>
+        <v>1.237628484191108</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.512270627553465</v>
@@ -10572,7 +10422,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.250684603254202</v>
+        <v>1.230721849236721</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.189198815400805</v>
@@ -10661,7 +10511,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.253120137260107</v>
+        <v>1.237407560858194</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.174491192821344</v>
@@ -10750,7 +10600,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.261234880544624</v>
+        <v>1.2444969432543</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.3227199276692</v>
@@ -10839,7 +10689,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.272695851169972</v>
+        <v>1.255372429410743</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.182331745582229</v>
@@ -10928,7 +10778,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.274901770333011</v>
+        <v>1.25246685208113</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.37099791519057</v>
@@ -11017,7 +10867,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.274503098205786</v>
+        <v>1.25595636357</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.175793642562843</v>
@@ -11106,7 +10956,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.278788818631987</v>
+        <v>1.257133772797166</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.334104010499126</v>
@@ -11195,7 +11045,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.297925076013398</v>
+        <v>1.275546634775432</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.213491114861192</v>
@@ -11284,7 +11134,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.303789506571791</v>
+        <v>1.276378942657327</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.269706013273214</v>
@@ -11373,7 +11223,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.309675930702912</v>
+        <v>1.287053494179855</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.225400508036866</v>
@@ -11462,7 +11312,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.313987572166639</v>
+        <v>1.29112391937947</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.451539581716313</v>
@@ -11551,7 +11401,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.316677407098814</v>
+        <v>1.294513159886144</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.275471964128286</v>
@@ -11640,7 +11490,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.31280333097043</v>
+        <v>1.293553324693939</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.187164768055466</v>
@@ -11729,7 +11579,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.31595723687331</v>
+        <v>1.297284634631337</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.155877978642846</v>
@@ -11818,7 +11668,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.330946365418884</v>
+        <v>1.313765373663742</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.488727338690362</v>
@@ -11907,7 +11757,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.342174856921605</v>
+        <v>1.327037860580163</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.09235206750379</v>
@@ -11996,7 +11846,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.363963379156147</v>
+        <v>1.349243288461159</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.28656851021941</v>
@@ -12085,7 +11935,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.369696294138603</v>
+        <v>1.353327021928823</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.068726471511624</v>
@@ -12174,7 +12024,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.353202580145289</v>
+        <v>1.334582915771451</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.163220059073772</v>
@@ -12263,7 +12113,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.372351659286392</v>
+        <v>1.354229492608847</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.31274978621531</v>
@@ -12352,7 +12202,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.355094700332547</v>
+        <v>1.340232258174733</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.260733828791494</v>
@@ -12441,7 +12291,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.372355396655244</v>
+        <v>1.360670170413302</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.209642803259173</v>
@@ -12530,7 +12380,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.354919120957321</v>
+        <v>1.341805403279734</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.285783313058846</v>
@@ -12619,7 +12469,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.341441933712503</v>
+        <v>1.330468699063658</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.130896368109495</v>
@@ -12905,7 +12755,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.647618110786963</v>
+        <v>1.673470253294661</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.192890145548614</v>
@@ -12994,7 +12844,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.670529883904757</v>
+        <v>1.690919196446396</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.215564513045557</v>
@@ -13083,7 +12933,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.676911691361281</v>
+        <v>1.693921958002055</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.096172906854948</v>
@@ -13172,7 +13022,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.65452428422244</v>
+        <v>1.668975446365212</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.080807088626765</v>
@@ -13261,7 +13111,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.6832868291106</v>
+        <v>1.694529927390492</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.9242127565299</v>
@@ -13350,7 +13200,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.690745332404376</v>
+        <v>1.705805022802202</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.925229746710449</v>
@@ -13439,7 +13289,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.682053619224661</v>
+        <v>1.695940197369241</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.151755097392855</v>
@@ -13528,7 +13378,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.67833880065939</v>
+        <v>1.695151016994996</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.996074651403932</v>
@@ -13617,7 +13467,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.686861171183518</v>
+        <v>1.692270675855249</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.036908976785483</v>
@@ -13706,7 +13556,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.704237367692614</v>
+        <v>1.710581962036644</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.79253517492798</v>
@@ -13795,7 +13645,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.700548079619491</v>
+        <v>1.702186069920216</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.104096012214533</v>
@@ -13884,7 +13734,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.711358163697798</v>
+        <v>1.707907372653715</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.156818671733293</v>
@@ -13973,7 +13823,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.713408189124846</v>
+        <v>1.709742357728475</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.092529659964728</v>
@@ -14062,7 +13912,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.723983757828642</v>
+        <v>1.714976050068052</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.465986684733668</v>
@@ -14151,7 +14001,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.710531451826389</v>
+        <v>1.694511437682505</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.046927423299716</v>
@@ -14240,7 +14090,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.704124371292071</v>
+        <v>1.688145227886435</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.635157116027876</v>
@@ -14329,7 +14179,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.695482199916557</v>
+        <v>1.677418454522265</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.941298606908948</v>
@@ -14418,7 +14268,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.678240422433526</v>
+        <v>1.664032300596376</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.899531326964422</v>
@@ -14507,7 +14357,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.680633217059902</v>
+        <v>1.66310914626081</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.95488356620361</v>
@@ -14596,7 +14446,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.6776113431811</v>
+        <v>1.655902318902333</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.970597896364737</v>
@@ -14685,7 +14535,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.655348522646099</v>
+        <v>1.637759730439013</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.703141082938878</v>
@@ -14774,7 +14624,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.660934583228267</v>
+        <v>1.647062550902978</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.999194988237359</v>
@@ -14863,7 +14713,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.647359710273323</v>
+        <v>1.632422403099108</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.853358189794503</v>
@@ -14952,7 +14802,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.638728460393315</v>
+        <v>1.62936706753702</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.955813247375649</v>
@@ -15041,7 +14891,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.625901247267703</v>
+        <v>1.619338933413357</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.75771431265511</v>
@@ -15130,7 +14980,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.630951862195004</v>
+        <v>1.627012861306342</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.9811826204367</v>
@@ -15219,7 +15069,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.621131633695085</v>
+        <v>1.621232061670551</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.821427461443411</v>
@@ -15308,7 +15158,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.621283429151099</v>
+        <v>1.620405591420905</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.628195179124774</v>
@@ -15397,7 +15247,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.611790470646356</v>
+        <v>1.617906341727805</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.744279236942086</v>
@@ -15486,7 +15336,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.608031062667183</v>
+        <v>1.617628047368124</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.884772538284769</v>
@@ -15575,7 +15425,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.601428249405936</v>
+        <v>1.61180158576241</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.966863099918797</v>
@@ -15664,7 +15514,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.591806399138845</v>
+        <v>1.608004374675513</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.710082092605176</v>
@@ -15753,7 +15603,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.602419549335675</v>
+        <v>1.618967139382804</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.984075658403454</v>
@@ -15842,7 +15692,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.59206689385695</v>
+        <v>1.613573854348928</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.995753065566961</v>
@@ -15931,7 +15781,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.585106405853</v>
+        <v>1.611360281973412</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.17235602516953</v>
@@ -16020,7 +15870,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.603430005133393</v>
+        <v>1.626283495430771</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.054821818289787</v>
@@ -16109,7 +15959,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.609128736816572</v>
+        <v>1.625534916247217</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.415737276131699</v>
@@ -16198,7 +16048,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.622146011654285</v>
+        <v>1.638080824959744</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.464168719997908</v>
@@ -16287,7 +16137,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.629569923908655</v>
+        <v>1.643552924397242</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.682328603310579</v>
@@ -16376,7 +16226,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.646142548602481</v>
+        <v>1.66062812484014</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.314117843239444</v>
@@ -16465,7 +16315,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.633442900816149</v>
+        <v>1.646554435954013</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.138314833579636</v>
@@ -16554,7 +16404,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.631368813312122</v>
+        <v>1.638936984285632</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.466813826050912</v>
@@ -16643,7 +16493,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.609281439874265</v>
+        <v>1.615681385093581</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.815716956139117</v>
@@ -16732,7 +16582,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.623930969053809</v>
+        <v>1.634033914195002</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.968048358494745</v>
@@ -16821,7 +16671,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.638059597761503</v>
+        <v>1.645893750881558</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.018132092651337</v>
@@ -16910,7 +16760,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.650304038525144</v>
+        <v>1.656422913324212</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.91718631330595</v>
@@ -16999,7 +16849,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.655558370504428</v>
+        <v>1.659984488456353</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.01871164190698</v>
@@ -17088,7 +16938,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.653996835882194</v>
+        <v>1.654145341002683</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.788315295916462</v>
@@ -17177,7 +17027,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.645468614420086</v>
+        <v>1.644378032333671</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.914795843199899</v>
@@ -17266,7 +17116,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.63901956681967</v>
+        <v>1.640240263911005</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.921197522465413</v>
@@ -17355,7 +17205,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.630553531116516</v>
+        <v>1.628193447953857</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.994295439806897</v>
@@ -17444,7 +17294,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.625920302895932</v>
+        <v>1.627137441720403</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.713935333225852</v>
@@ -17533,7 +17383,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.622625556165564</v>
+        <v>1.622923352061814</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.971102406568559</v>
@@ -17622,7 +17472,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.617304120972159</v>
+        <v>1.619139735983125</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.893248018042362</v>
@@ -17711,7 +17561,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.616359823449108</v>
+        <v>1.617015873928221</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.856031589099582</v>
@@ -17800,7 +17650,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.614777191814662</v>
+        <v>1.617299568416789</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.986068182456922</v>
@@ -17889,7 +17739,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.619268516519795</v>
+        <v>1.624838474585025</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.762564229547852</v>
@@ -17978,7 +17828,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.641681473366495</v>
+        <v>1.643642388888845</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.047690647342908</v>
@@ -18067,7 +17917,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.633243598441056</v>
+        <v>1.631238169371378</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.338658727641317</v>
@@ -18156,7 +18006,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.635410441142174</v>
+        <v>1.631782611646682</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.501750042048442</v>
@@ -18245,7 +18095,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.636462226423304</v>
+        <v>1.630293676132116</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.072336824186653</v>
@@ -18334,7 +18184,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.63251097445045</v>
+        <v>1.625523570409014</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.273603620055027</v>
@@ -18423,7 +18273,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.619399330030531</v>
+        <v>1.608190511653437</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.895543355124889</v>
@@ -18512,7 +18362,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.631280605857051</v>
+        <v>1.618770135060849</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.697771518939912</v>
@@ -18601,7 +18451,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.623826515480268</v>
+        <v>1.612059328301277</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.933770944647875</v>
@@ -18690,7 +18540,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.630621077161668</v>
+        <v>1.617703912041567</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.663901802805227</v>
@@ -18779,7 +18629,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.625749205934665</v>
+        <v>1.61470628634291</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.849326554009216</v>
@@ -18868,7 +18718,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.614504739990593</v>
+        <v>1.605224961697312</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.688648081123883</v>
@@ -19154,7 +19004,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.629803717693949</v>
+        <v>1.637456715707188</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.09660613423692</v>
@@ -19243,7 +19093,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.63804296518074</v>
+        <v>1.639042605309434</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.01435203297914</v>
@@ -19332,7 +19182,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.649438381153526</v>
+        <v>1.644796015251534</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.113639241947046</v>
@@ -19421,7 +19271,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.665302224755339</v>
+        <v>1.6445742445102</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.540544974224264</v>
@@ -19510,7 +19360,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.654222140188585</v>
+        <v>1.636164836999188</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.288051825573845</v>
@@ -19599,7 +19449,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.663895213286946</v>
+        <v>1.644879774036608</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.517989572257057</v>
@@ -19688,7 +19538,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.664692651074716</v>
+        <v>1.647721116994187</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.195765430728498</v>
@@ -19777,7 +19627,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.65423952365668</v>
+        <v>1.641280304434995</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.360363570238241</v>
@@ -19866,7 +19716,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.655715952312072</v>
+        <v>1.633959549566715</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.031208515253409</v>
@@ -19955,7 +19805,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.655068337419886</v>
+        <v>1.632790512463918</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.107150285063585</v>
@@ -20044,7 +19894,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.656605791770892</v>
+        <v>1.62753689162763</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.468875229676418</v>
@@ -20133,7 +19983,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.648646152175992</v>
+        <v>1.617280534912499</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.31654107730396</v>
@@ -20222,7 +20072,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.655112861937491</v>
+        <v>1.622225638601628</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.58839102866141</v>
@@ -20311,7 +20161,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.651702056266714</v>
+        <v>1.62151607018074</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.432974088172091</v>
@@ -20400,7 +20250,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.648987258588592</v>
+        <v>1.613707029288506</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.418288292581864</v>
@@ -20489,7 +20339,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.635515809259705</v>
+        <v>1.59534870557915</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.340584165672297</v>
@@ -20578,7 +20428,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.630087920880744</v>
+        <v>1.595658416255999</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.415343993000513</v>
@@ -20667,7 +20517,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.618852456664857</v>
+        <v>1.583633319476319</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.067815977496414</v>
@@ -20756,7 +20606,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.600347074401048</v>
+        <v>1.563884435192277</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.263364520951851</v>
@@ -20845,7 +20695,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.617121417475382</v>
+        <v>1.573999287681286</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.553077863572156</v>
@@ -20934,7 +20784,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.616270078476104</v>
+        <v>1.570437562659851</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.389751316041435</v>
@@ -21023,7 +20873,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.6278783470666</v>
+        <v>1.577803117153806</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.795899130656323</v>
@@ -21112,7 +20962,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.629444032357326</v>
+        <v>1.573922547029402</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.400659826016516</v>
@@ -21201,7 +21051,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.625960038232202</v>
+        <v>1.576525971594265</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.333389664110064</v>
@@ -21290,7 +21140,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.618374439313095</v>
+        <v>1.573060960326411</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.26215715150152</v>
@@ -21379,7 +21229,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.60898883557714</v>
+        <v>1.566024072255057</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.62081349395901</v>
@@ -21468,7 +21318,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.613805429046668</v>
+        <v>1.567390113677275</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.206747015271446</v>
@@ -21557,7 +21407,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.605974701753938</v>
+        <v>1.556079063145861</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.911127430882828</v>
@@ -21646,7 +21496,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.60139812935772</v>
+        <v>1.553115673138459</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.550065865274465</v>
@@ -21735,7 +21585,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.592310032442221</v>
+        <v>1.547426590402089</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.137065103042929</v>
@@ -21824,7 +21674,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.588311176834359</v>
+        <v>1.550999151555303</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.369659649675482</v>
@@ -21913,7 +21763,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.589269637145694</v>
+        <v>1.554377367633102</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.495436431922636</v>
@@ -22002,7 +21852,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.592284551037304</v>
+        <v>1.554147453225754</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.109743667322372</v>
@@ -22091,7 +21941,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.592107988583448</v>
+        <v>1.554842364415963</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.433114187118825</v>
@@ -22180,7 +22030,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.585143026044228</v>
+        <v>1.55473608495247</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.407299743351209</v>
@@ -22269,7 +22119,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.581850461105</v>
+        <v>1.547328836843457</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.411842550771382</v>
@@ -22358,7 +22208,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.594160007774305</v>
+        <v>1.562218158361177</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.532018115011198</v>
@@ -22447,7 +22297,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.586331841993477</v>
+        <v>1.559224501255752</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.590320386796009</v>
@@ -22536,7 +22386,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.576725771623595</v>
+        <v>1.551733982416523</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.266651291949257</v>
@@ -22625,7 +22475,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.600680425875578</v>
+        <v>1.565849209690836</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.434652903958851</v>
@@ -22714,7 +22564,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.599492158031758</v>
+        <v>1.566810119534042</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.611503031475978</v>
@@ -22803,7 +22653,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.60179596894115</v>
+        <v>1.564090267853433</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.318617720163152</v>
@@ -22892,7 +22742,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.596357542853793</v>
+        <v>1.559222700855528</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.399257117366043</v>
@@ -22981,7 +22831,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.61120690542448</v>
+        <v>1.57406122279219</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.310957188211321</v>
@@ -23070,7 +22920,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.621151804550663</v>
+        <v>1.577940891663363</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.65821278628604</v>
@@ -23159,7 +23009,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.638728861611085</v>
+        <v>1.59019806395247</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.480645630073806</v>
@@ -23248,7 +23098,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.637628503095881</v>
+        <v>1.589432852864282</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.583805552097616</v>
@@ -23337,7 +23187,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.640790668088624</v>
+        <v>1.590878223993534</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.149474939503786</v>
@@ -23426,7 +23276,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.648262721967911</v>
+        <v>1.596579215453475</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.401818153144157</v>
@@ -23515,7 +23365,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.638282483918627</v>
+        <v>1.581802243871666</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.329469849184314</v>
@@ -23604,7 +23454,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.628886502646415</v>
+        <v>1.571127181555732</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.791835500713829</v>
@@ -23693,7 +23543,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.627457968353667</v>
+        <v>1.567042277322306</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.773717556683938</v>
@@ -23782,7 +23632,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.632471872943316</v>
+        <v>1.571351297590378</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.379714456275611</v>
@@ -23871,7 +23721,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.644905723425658</v>
+        <v>1.579998010451536</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.33285695708839</v>
@@ -23960,7 +23810,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.626216023891557</v>
+        <v>1.563977453442445</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.299103661103145</v>
@@ -24049,7 +23899,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.626394188112722</v>
+        <v>1.560647447210618</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.491392237172154</v>
@@ -24138,7 +23988,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.625123346110354</v>
+        <v>1.564198732768208</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.399499150306768</v>
@@ -24227,7 +24077,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.632966336354344</v>
+        <v>1.571725786773405</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.286243214150209</v>
@@ -24316,7 +24166,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.6279437938892</v>
+        <v>1.567240141680574</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.172376032691838</v>
@@ -24405,7 +24255,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.621344149154353</v>
+        <v>1.565488572457966</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.028894581822901</v>
@@ -24494,7 +24344,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.612134030615702</v>
+        <v>1.555309276813095</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.278636272124076</v>
@@ -24583,7 +24433,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.609519554170697</v>
+        <v>1.552756902271493</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.09117797741317</v>
@@ -24672,7 +24522,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.59749027646489</v>
+        <v>1.54693680221323</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.423161067627572</v>
@@ -24761,7 +24611,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.610084493224918</v>
+        <v>1.556427553386108</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.276714596498997</v>
@@ -24850,7 +24700,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.615305934289054</v>
+        <v>1.564065228923877</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.364498839120858</v>
@@ -24939,7 +24789,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.622017785744274</v>
+        <v>1.574358510835909</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.322889433210535</v>
@@ -25028,7 +24878,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.610577773435904</v>
+        <v>1.571084167769487</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.416406247802751</v>
@@ -25117,7 +24967,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.619452873042622</v>
+        <v>1.578258981057789</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.02709210169204</v>
@@ -25403,7 +25253,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.624775439970116</v>
+        <v>1.638230094959158</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.233423121118762</v>
@@ -25492,7 +25342,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.628853422671598</v>
+        <v>1.634509022600845</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.089513300538246</v>
@@ -25581,7 +25431,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.60323147622211</v>
+        <v>1.601594467987022</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.222490884292962</v>
@@ -25670,7 +25520,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.615645526219464</v>
+        <v>1.598532356693739</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.90550520198653</v>
@@ -25759,7 +25609,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.641677491455754</v>
+        <v>1.619849842111835</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.829158088425013</v>
@@ -25848,7 +25698,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.659810875037258</v>
+        <v>1.637161900343341</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.584992598175537</v>
@@ -25937,7 +25787,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.66220087940813</v>
+        <v>1.634787595255</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.828247335679014</v>
@@ -26026,7 +25876,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.673583080425476</v>
+        <v>1.647115490935823</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.943435971374095</v>
@@ -26115,7 +25965,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.673844746065134</v>
+        <v>1.642448954886751</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.552297142664192</v>
@@ -26204,7 +26054,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.672256696755676</v>
+        <v>1.640206834994367</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.45821030542441</v>
@@ -26293,7 +26143,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.671881295713581</v>
+        <v>1.639493897053274</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.636194882448129</v>
@@ -26382,7 +26232,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.669240687302556</v>
+        <v>1.641153624540145</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.297328341283642</v>
@@ -26471,7 +26321,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.663093806047583</v>
+        <v>1.633830060035131</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.187217749158489</v>
@@ -26560,7 +26410,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.667049788935627</v>
+        <v>1.637101689435638</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.955662213992602</v>
@@ -26649,7 +26499,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.672620371670078</v>
+        <v>1.64061506135806</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.384210491201503</v>
@@ -26738,7 +26588,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.679021096397123</v>
+        <v>1.641459926420288</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.73744185874056</v>
@@ -26827,7 +26677,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.66976109923388</v>
+        <v>1.635168989184715</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.905643533075585</v>
@@ -26916,7 +26766,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.672740027798429</v>
+        <v>1.636971577456408</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.777867353809369</v>
@@ -27005,7 +26855,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.67804641667469</v>
+        <v>1.646322364344833</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.520371888791887</v>
@@ -27094,7 +26944,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.682804509674841</v>
+        <v>1.648238265141382</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.262760723208973</v>
@@ -27183,7 +27033,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.669281121715812</v>
+        <v>1.637217775887392</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.808596738678812</v>
@@ -27272,7 +27122,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.680429404347731</v>
+        <v>1.648933172915527</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.566643776298542</v>
@@ -27361,7 +27211,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.677252928623627</v>
+        <v>1.645584213802521</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.543232090493861</v>
@@ -27450,7 +27300,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.677530533813303</v>
+        <v>1.649955470440804</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.968824815304124</v>
@@ -27539,7 +27389,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.680933259942349</v>
+        <v>1.657098125625214</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.600525905438358</v>
@@ -27628,7 +27478,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.687277004004708</v>
+        <v>1.664693732140869</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.787497051606421</v>
@@ -27717,7 +27567,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.686223675726472</v>
+        <v>1.660484117488559</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.833772099902911</v>
@@ -27806,7 +27656,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.69060380606449</v>
+        <v>1.667387348002472</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.42710604895564</v>
@@ -27895,7 +27745,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.689899607138661</v>
+        <v>1.663778705473318</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.709404446267919</v>
@@ -27984,7 +27834,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.694093581910092</v>
+        <v>1.663363082672648</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.947404504114998</v>
@@ -28073,7 +27923,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.684526958840378</v>
+        <v>1.65868208605726</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.826564774270622</v>
@@ -28162,7 +28012,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.700713698829392</v>
+        <v>1.671173251688632</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.447462460606405</v>
@@ -28251,7 +28101,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.712343539827431</v>
+        <v>1.678771689960475</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.307072416744304</v>
@@ -28340,7 +28190,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.706790415014213</v>
+        <v>1.672934119812332</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.604183638788244</v>
@@ -28429,7 +28279,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.70842999559305</v>
+        <v>1.675072823378101</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.953165176963912</v>
@@ -28518,7 +28368,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.727291149625874</v>
+        <v>1.689142523993011</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.001233964877266</v>
@@ -28607,7 +28457,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.729576136179082</v>
+        <v>1.694609942169543</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.031930883063938</v>
@@ -28696,7 +28546,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.718140914577499</v>
+        <v>1.684205033144096</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.075952122745695</v>
@@ -28785,7 +28635,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.716730238135554</v>
+        <v>1.685269447003378</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.636349761278254</v>
@@ -28874,7 +28724,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.711158098235125</v>
+        <v>1.676121074073771</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.549256532836552</v>
@@ -28963,7 +28813,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.705415663183948</v>
+        <v>1.670021819954934</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.600246390036878</v>
@@ -29052,7 +28902,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.707344082498546</v>
+        <v>1.671678731732282</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.585936993363239</v>
@@ -29141,7 +28991,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.705687658015782</v>
+        <v>1.668675909415386</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.632206677259169</v>
@@ -29230,7 +29080,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.700833156194475</v>
+        <v>1.665711517213589</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.833300143983257</v>
@@ -29319,7 +29169,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.703734755002648</v>
+        <v>1.667750072312322</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.816392308448949</v>
@@ -29408,7 +29258,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.713764165663402</v>
+        <v>1.676498916082339</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.384890920831412</v>
@@ -29497,7 +29347,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.705175571689257</v>
+        <v>1.670575473278866</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.397005936996122</v>
@@ -29586,7 +29436,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.698883395226901</v>
+        <v>1.658670275198204</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.66815968794767</v>
@@ -29675,7 +29525,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.69165251277366</v>
+        <v>1.647128577008647</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.593349007108001</v>
@@ -29764,7 +29614,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.680172610405405</v>
+        <v>1.638654038065501</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.600728753356333</v>
@@ -29853,7 +29703,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.664643400935001</v>
+        <v>1.622012564725643</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.598655390521842</v>
@@ -29942,7 +29792,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.663724012203237</v>
+        <v>1.617096313932296</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.485179909540626</v>
@@ -30031,7 +29881,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.66690580596754</v>
+        <v>1.619842697678874</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.532401373947137</v>
@@ -30120,7 +29970,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.666153489859802</v>
+        <v>1.612954392098822</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.935531836838692</v>
@@ -30209,7 +30059,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.668568701054077</v>
+        <v>1.614605754341587</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.676244270678465</v>
@@ -30298,7 +30148,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.662629130473561</v>
+        <v>1.608515024685942</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.860717137242302</v>
@@ -30387,7 +30237,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.661782150893163</v>
+        <v>1.613893901931789</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.495344230359111</v>
@@ -30476,7 +30326,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.665399238572037</v>
+        <v>1.611978302716923</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.75175191767927</v>
@@ -30565,7 +30415,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.672130999237092</v>
+        <v>1.613301283458029</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.397139111897667</v>
@@ -30654,7 +30504,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.663537325633377</v>
+        <v>1.606858526621454</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.516431191700967</v>
@@ -30743,7 +30593,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.658370596217718</v>
+        <v>1.602337965055056</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.988998011681633</v>
@@ -30832,7 +30682,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.651924453831976</v>
+        <v>1.595915890404403</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.726726442739273</v>
@@ -30921,7 +30771,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.660725792777015</v>
+        <v>1.605794153335721</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.825223599061573</v>
@@ -31010,7 +30860,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.678542248274444</v>
+        <v>1.622142531717379</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.990127566364885</v>
@@ -31099,7 +30949,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.681971932734749</v>
+        <v>1.622988023687259</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.656342347610647</v>
@@ -31188,7 +31038,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.687542465600333</v>
+        <v>1.629359982079803</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.730190551845658</v>
@@ -31277,7 +31127,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.68678992762679</v>
+        <v>1.628035193593834</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.319796918213076</v>
@@ -31366,7 +31216,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.683846720241651</v>
+        <v>1.625265979430434</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.877502575131744</v>
@@ -31652,7 +31502,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.644439658434542</v>
+        <v>1.67824154915015</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.48542197300575</v>
@@ -31741,7 +31591,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.652500754503487</v>
+        <v>1.677729172625532</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.507142441397421</v>
@@ -31830,7 +31680,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.63297092505942</v>
+        <v>1.659380119885048</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.253889546910845</v>
@@ -31919,7 +31769,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.627628214433016</v>
+        <v>1.655835852461814</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.287057308626579</v>
@@ -32008,7 +31858,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.648466319975527</v>
+        <v>1.678287493195508</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.227181062721592</v>
@@ -32097,7 +31947,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.662294854682405</v>
+        <v>1.69279471896954</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.421932797609225</v>
@@ -32186,7 +32036,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.653369546040008</v>
+        <v>1.681569902860959</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.328475690927665</v>
@@ -32275,7 +32125,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.659989717217389</v>
+        <v>1.687997106191479</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.360498815231138</v>
@@ -32364,7 +32214,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.748068187956837</v>
+        <v>1.753468985976797</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.434107174798615</v>
@@ -32453,7 +32303,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.752379911362027</v>
+        <v>1.758610186801218</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.110505565915907</v>
@@ -32542,7 +32392,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.762068207346058</v>
+        <v>1.770320463972947</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.593266888607895</v>
@@ -32631,7 +32481,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.759662380779861</v>
+        <v>1.764163183449851</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.925779572097952</v>
@@ -32720,7 +32570,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.752369513377605</v>
+        <v>1.757892799307922</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.169264899737215</v>
@@ -32809,7 +32659,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.754611311323152</v>
+        <v>1.758361209576879</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.800467856460503</v>
@@ -32898,7 +32748,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.732213995584585</v>
+        <v>1.732195806529155</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.769955596290818</v>
@@ -32987,7 +32837,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.733902888722063</v>
+        <v>1.735409970483416</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.70405159588909</v>
@@ -33076,7 +32926,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.730080272316043</v>
+        <v>1.731221679487701</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.625345515175917</v>
@@ -33165,7 +33015,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.723210033569034</v>
+        <v>1.722917538499482</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.541352647314052</v>
@@ -33254,7 +33104,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.726345741920984</v>
+        <v>1.716028602867008</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.499828773184302</v>
@@ -33343,7 +33193,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.714570643854237</v>
+        <v>1.702068074112464</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.647092994661846</v>
@@ -33432,7 +33282,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.698162526741524</v>
+        <v>1.69345100239016</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.663958325423872</v>
@@ -33521,7 +33371,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.704030435439412</v>
+        <v>1.698122346059322</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.551515734735571</v>
@@ -33610,7 +33460,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.6947105426092</v>
+        <v>1.691691897968914</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.559436024150066</v>
@@ -33699,7 +33549,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.696506610627514</v>
+        <v>1.69454560063854</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.76975823943287</v>
@@ -33788,7 +33638,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.683865509472805</v>
+        <v>1.684422429920666</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.948169714580623</v>
@@ -33877,7 +33727,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.677748514653606</v>
+        <v>1.678746268301222</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.537300679774356</v>
@@ -33966,7 +33816,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.68461207555702</v>
+        <v>1.685262886677344</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.706345643067066</v>
@@ -34055,7 +33905,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.68524987658105</v>
+        <v>1.68528412767065</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.967260409953683</v>
@@ -34144,7 +33994,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.689473147792927</v>
+        <v>1.689207521899886</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.050124889814029</v>
@@ -34233,7 +34083,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.699958527224597</v>
+        <v>1.699989264581955</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.511948955694955</v>
@@ -34322,7 +34172,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.70211776198831</v>
+        <v>1.700752374136809</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.704646748716233</v>
@@ -34411,7 +34261,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.699942653175587</v>
+        <v>1.699245153600317</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.313136877783028</v>
@@ -34500,7 +34350,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.704491679248683</v>
+        <v>1.701963498467259</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.7954408270119</v>
@@ -34589,7 +34439,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.701062523180677</v>
+        <v>1.707107870175826</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.753459526453032</v>
@@ -34678,7 +34528,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.715682476206904</v>
+        <v>1.719440561238117</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.843266618910221</v>
@@ -34767,7 +34617,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.710909870477808</v>
+        <v>1.712403992550251</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.458539332945757</v>
@@ -34856,7 +34706,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.712172615790317</v>
+        <v>1.717343695653006</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.318171920848626</v>
@@ -34945,7 +34795,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.713143307538513</v>
+        <v>1.718376771434907</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.599990981133542</v>
@@ -35034,7 +34884,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.714115045656261</v>
+        <v>1.717586940397604</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.089833651677673</v>
@@ -35123,7 +34973,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.722637941240088</v>
+        <v>1.72259415863504</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.407003640570815</v>
@@ -35212,7 +35062,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.723505582263609</v>
+        <v>1.720543224678311</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.834960686778113</v>
@@ -35301,7 +35151,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.707964225713957</v>
+        <v>1.711317423119117</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.162782152094868</v>
@@ -35390,7 +35240,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.687858726878738</v>
+        <v>1.689259450939982</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.438051172098543</v>
@@ -35479,7 +35329,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.684124345876238</v>
+        <v>1.690841684764127</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.338389351634216</v>
@@ -35568,7 +35418,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.684528293832932</v>
+        <v>1.693932548548628</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.389446829342063</v>
@@ -35657,7 +35507,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.67795321855545</v>
+        <v>1.689497340289653</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.144372334898072</v>
@@ -35746,7 +35596,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.677962812991374</v>
+        <v>1.686290803019697</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.837121507548681</v>
@@ -35835,7 +35685,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.676298378696099</v>
+        <v>1.683665438271211</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.24904816370275</v>
@@ -35924,7 +35774,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.668902432371638</v>
+        <v>1.670094425641041</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.251527102376589</v>
@@ -36013,7 +35863,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.651503231842376</v>
+        <v>1.65565979947408</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.323953170645508</v>
@@ -36102,7 +35952,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.652912951053792</v>
+        <v>1.654553430269222</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.337849257580447</v>
@@ -36191,7 +36041,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.655304165781247</v>
+        <v>1.655103035781001</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.296960676442781</v>
@@ -36280,7 +36130,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.649724571427281</v>
+        <v>1.649051708306394</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.052153794314672</v>
@@ -36369,7 +36219,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.648896689427481</v>
+        <v>1.645134504853405</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.207122460335826</v>
@@ -36458,7 +36308,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.642531741987683</v>
+        <v>1.636333981641042</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.805281789420548</v>
@@ -36547,7 +36397,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.635542710849656</v>
+        <v>1.630892923685314</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.257530840987826</v>
@@ -36636,7 +36486,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.652052914766204</v>
+        <v>1.646126014216927</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.904344896890764</v>
@@ -36725,7 +36575,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.678153526175473</v>
+        <v>1.669669763831797</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.895859130885637</v>
@@ -36814,7 +36664,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.680356374704415</v>
+        <v>1.670243462702595</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.820310772988875</v>
@@ -36903,7 +36753,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.671433890263709</v>
+        <v>1.658588156140083</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.884541662916612</v>
@@ -36992,7 +36842,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.679355532763897</v>
+        <v>1.662722606170561</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.346606323312826</v>
@@ -37081,7 +36931,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.681144385025552</v>
+        <v>1.666277723365562</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.450662552343566</v>
@@ -37170,7 +37020,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.67566868959434</v>
+        <v>1.660557404033038</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.008084119839965</v>
@@ -37259,7 +37109,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.703908264193863</v>
+        <v>1.681855906900603</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.344242383648116</v>
@@ -37348,7 +37198,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.707208630154317</v>
+        <v>1.690177355789324</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.964993084193395</v>
@@ -37437,7 +37287,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.722491655435929</v>
+        <v>1.704038328387729</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.155988923611264</v>
@@ -37526,7 +37376,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.737448451014385</v>
+        <v>1.715986500381081</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.441239671180838</v>
@@ -37615,7 +37465,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.732685305819198</v>
+        <v>1.717939591648633</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.303165410651689</v>
@@ -37901,7 +37751,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.255766404177856</v>
+        <v>1.233049857354599</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.385345347086773</v>
@@ -37990,7 +37840,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.248452652432208</v>
+        <v>1.228454675923311</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.372578913607574</v>
@@ -38079,7 +37929,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.243674717583586</v>
+        <v>1.221406712551159</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.339898901430745</v>
@@ -38168,7 +38018,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.242181322162203</v>
+        <v>1.214790992566476</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.394697562213177</v>
@@ -38257,7 +38107,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.254743127017886</v>
+        <v>1.234441125577054</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.291932511160506</v>
@@ -38346,7 +38196,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.283287611805411</v>
+        <v>1.266268726325214</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.241916904404704</v>
@@ -38435,7 +38285,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.296446774420582</v>
+        <v>1.280875232823339</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.237472816224209</v>
@@ -38524,7 +38374,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.296454263727084</v>
+        <v>1.280617268382911</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.197420962340452</v>
@@ -38613,7 +38463,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.304073414127572</v>
+        <v>1.283516110032654</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.173264732431162</v>
@@ -38702,7 +38552,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.325441789727424</v>
+        <v>1.311986301626761</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.238756861336896</v>
@@ -38791,7 +38641,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.34280374319924</v>
+        <v>1.329935676257392</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.208129845762016</v>
@@ -38880,7 +38730,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.370425728277898</v>
+        <v>1.352983331930796</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.250462396712739</v>
@@ -38969,7 +38819,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.377208807515261</v>
+        <v>1.365135137486621</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.266620224024655</v>
@@ -39058,7 +38908,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.397453741470319</v>
+        <v>1.386117583408724</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.181491526196846</v>
@@ -39147,7 +38997,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.393350383196521</v>
+        <v>1.375213364791814</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.364324027174134</v>
@@ -39236,7 +39086,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.380543639053389</v>
+        <v>1.366861883564554</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.240176071880829</v>
@@ -39325,7 +39175,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.389304043659381</v>
+        <v>1.373074931283239</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.457794635601871</v>
@@ -39414,7 +39264,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.378433062200379</v>
+        <v>1.361082677192132</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.241245305890758</v>
@@ -39503,7 +39353,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.388728292340053</v>
+        <v>1.374724664337405</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.197553953021425</v>
@@ -39592,7 +39442,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.393308922776155</v>
+        <v>1.376349943601965</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.330923418656563</v>
@@ -39681,7 +39531,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.369608785690789</v>
+        <v>1.351396428012038</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.217179103844937</v>
@@ -39770,7 +39620,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.381360461678907</v>
+        <v>1.36755582120956</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.225319644154417</v>
@@ -39859,7 +39709,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.380594577129507</v>
+        <v>1.365341134810226</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.267382306425116</v>
@@ -39948,7 +39798,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.360841817223351</v>
+        <v>1.345112625367983</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.174624203503315</v>
@@ -40037,7 +39887,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.352169981442497</v>
+        <v>1.336606447409666</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.360167736211153</v>
@@ -40126,7 +39976,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.338110794732731</v>
+        <v>1.321739662920977</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.279919407321419</v>
@@ -40215,7 +40065,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.340258936722857</v>
+        <v>1.324177782383927</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.238843294676658</v>
@@ -40304,7 +40154,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.325990740814672</v>
+        <v>1.302026429090813</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.109450984426566</v>
@@ -40393,7 +40243,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.310188747697119</v>
+        <v>1.29669231896562</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.237840901927309</v>
@@ -40482,7 +40332,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.301099593531656</v>
+        <v>1.287187419773765</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.134681284236467</v>
@@ -40571,7 +40421,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.298799066833645</v>
+        <v>1.277831625143164</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.244285906395766</v>
@@ -40660,7 +40510,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.276428734543696</v>
+        <v>1.26271814311792</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.258121902194055</v>
@@ -40749,7 +40599,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.287709892266388</v>
+        <v>1.270485000228614</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.205591143514909</v>
@@ -40838,7 +40688,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.271043585525497</v>
+        <v>1.256528374837375</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.294973573218008</v>
@@ -40927,7 +40777,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.257012512053945</v>
+        <v>1.244121733709739</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.256020621095691</v>
@@ -41016,7 +40866,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.252435594234539</v>
+        <v>1.243873221809215</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.293815433379276</v>
@@ -41105,7 +40955,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.251420281419799</v>
+        <v>1.24344738449755</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.319322762553167</v>
@@ -41194,7 +41044,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.240880342674509</v>
+        <v>1.232318748907062</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.34973597935406</v>
@@ -41283,7 +41133,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.245383723050966</v>
+        <v>1.238006514205706</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.282734200002944</v>
@@ -41372,7 +41222,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.263594905943761</v>
+        <v>1.251763991958514</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.37630196062474</v>
@@ -41461,7 +41311,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.24661546182513</v>
+        <v>1.238938402453995</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.328686582482944</v>
@@ -41550,7 +41400,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.254175924173937</v>
+        <v>1.247846987994019</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.362606493665505</v>
@@ -41639,7 +41489,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.266698875459911</v>
+        <v>1.253412564645069</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.231030871440657</v>
@@ -41728,7 +41578,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.275947177739276</v>
+        <v>1.263546648959589</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.426991778645765</v>
@@ -41817,7 +41667,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.272356088473997</v>
+        <v>1.260878818415593</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.143495776824291</v>
@@ -41906,7 +41756,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.280760247181515</v>
+        <v>1.275357489398706</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.186837154454237</v>
@@ -41995,7 +41845,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.283345428428227</v>
+        <v>1.277266248459505</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.300791671233548</v>
@@ -42084,7 +41934,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.297491671344301</v>
+        <v>1.289667167524518</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.248199797607757</v>
@@ -42173,7 +42023,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.303339867876096</v>
+        <v>1.290407357194969</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.334333063804308</v>
@@ -42262,7 +42112,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.294756016344284</v>
+        <v>1.288104876667785</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.186575381443127</v>
@@ -42351,7 +42201,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.299520141195146</v>
+        <v>1.288944228541637</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.33976156684303</v>
@@ -42440,7 +42290,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.317240275145982</v>
+        <v>1.303819599646507</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.163706901807932</v>
@@ -42529,7 +42379,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.313736632503858</v>
+        <v>1.295594171069353</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.339618932711435</v>
@@ -42618,7 +42468,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.319717169876903</v>
+        <v>1.30268382060132</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.28271777394395</v>
@@ -42707,7 +42557,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.315866018667011</v>
+        <v>1.298192766091099</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.362151087650562</v>
@@ -42796,7 +42646,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.320134902395946</v>
+        <v>1.302003267220093</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.368606862975625</v>
@@ -42885,7 +42735,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.31113114442152</v>
+        <v>1.293551127652038</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.203321774050476</v>
@@ -42974,7 +42824,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.31530735015908</v>
+        <v>1.297550332324669</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.155561179650452</v>
@@ -43063,7 +42913,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.326699467744711</v>
+        <v>1.307986728006276</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.48191663466253</v>
@@ -43152,7 +43002,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.334244781120841</v>
+        <v>1.314089897065505</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.157329572379559</v>
@@ -43241,7 +43091,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.346248171197655</v>
+        <v>1.324243706534237</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.303770518010607</v>
@@ -43330,7 +43180,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.358337400223027</v>
+        <v>1.332491718092287</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.100717612983977</v>
@@ -43419,7 +43269,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.345005728802758</v>
+        <v>1.319694819372304</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.195828681536355</v>
@@ -43508,7 +43358,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.365216444640755</v>
+        <v>1.340869588533524</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.315387459928314</v>
@@ -43597,7 +43447,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.347848144720844</v>
+        <v>1.324781407724672</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.269477479812357</v>
@@ -43686,7 +43536,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.364747788630442</v>
+        <v>1.341439445229076</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.225052357466839</v>
@@ -43775,7 +43625,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.357935618573684</v>
+        <v>1.339824631242131</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.376137003317845</v>
@@ -43864,7 +43714,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.351553698149961</v>
+        <v>1.333599612684256</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.165493397415966</v>
